--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA26BF-9EFC-4D06-AEBD-48234C14F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC23AF9-7B5B-4278-995B-1E87E6AFAF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$B$3:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$3:$N$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Mes</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -696,26 +699,22 @@
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="str">
-        <f>$B$4&amp;"/"&amp;$C$4</f>
-        <v>/</v>
-      </c>
+      <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="12" t="str">
-        <f>"Total "&amp;$B$4&amp;"/"&amp;$C$4</f>
-        <v>Total /</v>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="13">
-        <f>SUM(I4:I1048576)</f>
+        <f>SUBTOTAL(9,I4:I99999)</f>
         <v>0</v>
       </c>
       <c r="J2" s="13">
-        <f>SUM(J4:J1048576)</f>
+        <f t="shared" ref="J2:K2" si="0">SUBTOTAL(9,J4:J99999)</f>
         <v>0</v>
       </c>
       <c r="K2" s="13">
-        <f>SUM(K4:K1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2" s="14"/>
@@ -787,7 +786,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:N3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:N3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC23AF9-7B5B-4278-995B-1E87E6AFAF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D80D7-D6D6-4C2C-9923-921B45CACC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Renta</t>
   </si>
   <si>
-    <t>Depósito</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Factura</t>
   </si>
 </sst>
 </file>
@@ -683,19 +683,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11"/>
       <c r="G1" s="16"/>
       <c r="H1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="13">
         <f>I2*0.13</f>
         <v>0</v>
       </c>
       <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       <c r="B2" s="11"/>
       <c r="G2" s="16"/>
       <c r="H2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="13">
         <f>SUBTOTAL(9,I4:I99999)</f>
@@ -713,15 +713,12 @@
         <f t="shared" ref="J2:K2" si="0">SUBTOTAL(9,J4:J99999)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>0</v>
@@ -730,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
@@ -739,28 +736,28 @@
         <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -771,18 +768,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="3"/>
       <c r="N4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D80D7-D6D6-4C2C-9923-921B45CACC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAB75E-7641-457F-8C7D-DA4211BB42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$3:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$3:$P$3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Mes</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Ciente</t>
   </si>
   <si>
-    <t>Renta</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>Renta pendiente</t>
   </si>
   <si>
     <t>Check
@@ -97,6 +91,18 @@
   </si>
   <si>
     <t>Factura</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>Importe pendiente</t>
+  </si>
+  <si>
+    <t>Renta o Servicio</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,6 +283,12 @@
     </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,55 +682,60 @@
   <cols>
     <col min="1" max="1" width="39.42578125" style="9" customWidth="1"/>
     <col min="2" max="3" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9" max="12" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.85546875" style="1"/>
+    <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="19" customWidth="1"/>
+    <col min="13" max="14" width="13.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13">
-        <f>I2*0.13</f>
+      <c r="H1" s="16"/>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13">
+        <f>J2*0.13</f>
         <v>0</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13">
-        <f>SUBTOTAL(9,I4:I99999)</f>
+      <c r="H2" s="16"/>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="13">
+        <f>SUBTOTAL(9,J4:J99999)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="13">
-        <f t="shared" ref="J2:K2" si="0">SUBTOTAL(9,J4:J99999)</f>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2" si="0">SUBTOTAL(9,K4:K99999)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>0</v>
@@ -727,63 +744,71 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:P3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAB75E-7641-457F-8C7D-DA4211BB42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F5CAB75E-7641-457F-8C7D-DA4211BB42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F948220D-8B80-493E-B6C7-2955E501942D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$3:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$R$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -56,9 +56,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>Management fee 13%</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Renta o Servicio</t>
+  </si>
+  <si>
+    <t>Management Fee</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,6 +289,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -375,6 +381,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,128 +697,128 @@
     <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="19" customWidth="1"/>
-    <col min="13" max="14" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.85546875" style="1"/>
+    <col min="10" max="11" width="13.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="19" customWidth="1"/>
+    <col min="15" max="16" width="13.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="H1" s="16"/>
       <c r="I1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="13">
+        <f>SUBTOTAL(9,J3:J99998)</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="13">
+        <f t="shared" ref="K1" si="0">SUBTOTAL(9,K3:K99998)</f>
+        <v>0</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13">
+        <f>SUBTOTAL(9,M3:M99998)</f>
+        <v>0</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13">
-        <f>J2*0.13</f>
+      <c r="Q2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="8">
+        <f>J3*L3</f>
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13">
-        <f>SUBTOTAL(9,J4:J99999)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <f t="shared" ref="K2" si="0">SUBTOTAL(9,K4:K99999)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:R2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{F5CAB75E-7641-457F-8C7D-DA4211BB42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F948220D-8B80-493E-B6C7-2955E501942D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E071F3C-81A3-4C23-A39F-A74408D9846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Mes</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Management Fee</t>
+  </si>
+  <si>
+    <t>Importe Neto</t>
+  </si>
+  <si>
+    <t>IVA</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,6 +166,10 @@
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,12 +238,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,11 +307,15 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,31 +695,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="9" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10" max="11" width="13.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="19" customWidth="1"/>
-    <col min="15" max="16" width="13.7109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.85546875" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="19" customWidth="1"/>
+    <col min="17" max="18" width="13.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -726,15 +739,17 @@
         <v>0</v>
       </c>
       <c r="L1" s="14"/>
-      <c r="M1" s="13">
-        <f>SUBTOTAL(9,M3:M99998)</f>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="13">
+        <f>SUBTOTAL(9,O3:O99998)</f>
         <v>0</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -768,27 +783,33 @@
       <c r="K2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -804,21 +825,26 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="8">
-        <f>J3*L3</f>
+        <f>J3/(1+L3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="8">
+        <f>M3*N3</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E071F3C-81A3-4C23-A39F-A74408D9846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5FD9D-0668-4BCE-B138-2785C03FE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,6 +238,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -244,7 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -308,6 +320,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -399,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,26 +714,26 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="19" customWidth="1"/>
-    <col min="17" max="18" width="13.6640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.88671875" style="1"/>
+    <col min="1" max="1" width="39.42578125" style="9" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
+    <col min="17" max="18" width="13.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +755,10 @@
       </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="N1" s="23" t="e">
+        <f>O1/J1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O1" s="13">
         <f>SUBTOTAL(9,O3:O99998)</f>
         <v>0</v>
@@ -749,7 +767,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -809,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -847,5 +865,8 @@
   <autoFilter ref="A2:T2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <ignoredErrors>
+    <ignoredError sqref="N1" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5FD9D-0668-4BCE-B138-2785C03FE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FF4A2-B86C-49FB-BDA1-A74E799D2BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$U$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Mes</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>IVA</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,53 +724,53 @@
     <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10" max="11" width="13.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
-    <col min="17" max="18" width="13.7109375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.85546875" style="1"/>
+    <col min="7" max="8" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="19" customWidth="1"/>
+    <col min="18" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="13">
-        <f>SUBTOTAL(9,J3:J99998)</f>
+      <c r="K1" s="13">
+        <f>SUBTOTAL(9,K3:K99998)</f>
         <v>0</v>
       </c>
-      <c r="K1" s="13">
-        <f t="shared" ref="K1" si="0">SUBTOTAL(9,K3:K99998)</f>
+      <c r="L1" s="13">
+        <f t="shared" ref="L1" si="0">SUBTOTAL(9,L3:L99998)</f>
         <v>0</v>
       </c>
-      <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="23" t="e">
-        <f>O1/J1</f>
+      <c r="N1" s="14"/>
+      <c r="O1" s="23" t="e">
+        <f>P1/K1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O1" s="13">
-        <f>SUBTOTAL(9,O3:O99998)</f>
+      <c r="P1" s="13">
+        <f>SUBTOTAL(9,P3:P99998)</f>
         <v>0</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -790,44 +793,47 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -835,38 +841,39 @@
       <c r="E3" s="6"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="8">
-        <f>J3/(1+L3)</f>
+      <c r="L3" s="8"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="8">
+        <f>K3/(1+M3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="8">
-        <f>M3*N3</f>
+      <c r="O3" s="21"/>
+      <c r="P3" s="8">
+        <f>N3*O3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:U2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="N1" evalError="1"/>
+    <ignoredError sqref="O1" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FF4A2-B86C-49FB-BDA1-A74E799D2BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE773B5-FA11-4422-87C8-8AD0923BBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$V$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,9 +274,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -327,6 +327,12 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -713,163 +719,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="9" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="7" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="19" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.85546875" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="18" customWidth="1"/>
+    <col min="18" max="20" width="13.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <f>SUBTOTAL(9,K3:K99998)</f>
         <v>0</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <f t="shared" ref="L1" si="0">SUBTOTAL(9,L3:L99998)</f>
         <v>0</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="23" t="e">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="22" t="e">
         <f>P1/K1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="12">
         <f>SUBTOTAL(9,P3:P99998)</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="8">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="7">
         <f>K3/(1+M3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="8">
+      <c r="O3" s="20"/>
+      <c r="P3" s="7">
         <f>N3*O3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="5" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE773B5-FA11-4422-87C8-8AD0923BBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F384CFE-BFD8-43A6-A653-29E3EF57DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingresos!$A$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Mes</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Producto</t>
   </si>
 </sst>
 </file>
@@ -719,33 +722,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5546875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="18" customWidth="1"/>
-    <col min="18" max="20" width="13.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.88671875" style="1"/>
+    <col min="1" max="1" width="39.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="8" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="36.85546875" style="18" customWidth="1"/>
+    <col min="19" max="21" width="13.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -773,11 +777,12 @@
         <v>0</v>
       </c>
       <c r="Q1" s="17"/>
-      <c r="R1" s="13"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -824,26 +829,29 @@
         <v>20</v>
       </c>
       <c r="P2" s="19"/>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -872,17 +880,18 @@
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="24" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>

--- a/app/templates/report/ingresos.xlsx
+++ b/app/templates/report/ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F384CFE-BFD8-43A6-A653-29E3EF57DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FA2D9-4AB9-42D9-AA36-C567914BD629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,13 +763,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="12">
-        <f t="shared" ref="L1" si="0">SUBTOTAL(9,L3:L99998)</f>
+        <f t="shared" ref="L1:N1" si="0">SUBTOTAL(9,L3:L99998)</f>
         <v>0</v>
       </c>
       <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="N1" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O1" s="22" t="e">
-        <f>P1/K1</f>
+        <f>P1/N1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P1" s="12">
@@ -894,8 +897,5 @@
   <autoFilter ref="A2:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <ignoredErrors>
-    <ignoredError sqref="O1" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>